--- a/biology/Zoologie/Gryllinae/Gryllinae.xlsx
+++ b/biology/Zoologie/Gryllinae/Gryllinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gryllinae sont une sous-famille d'insectes orthoptères de la famille des Gryllidae.
 Elle forme un groupe avec les Gryllomiminae Gorochov 1986, les Gryllomorphinae Saussure 1877, les Itarinae Chopard 1932, les Landrevinae Gorochov 1982, les Sclerogryllinae Gorochov 1985 et les †Gryllospeculinae Gorochov 1985.
@@ -512,9 +524,11 @@
           <t>Liste des tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (26 mars 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (26 mars 2010) :
 Cephalogryllini Otte &amp; Alexander 1983
 Apterogryllus Saussure, 1877
 Cephalogryllus Chopard, 1925
@@ -658,7 +672,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Laicharting, 1781 : Verzeichniß und Beschreibung der Tyroler-Insecten. I. Theil. Käferartige Insecten. I. Band.</t>
         </is>
